--- a/4_term/Homework_01 (Web-client)/output.xlsx
+++ b/4_term/Homework_01 (Web-client)/output.xlsx
@@ -441,85 +441,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28 января</t>
+          <t>12 февраля</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29 января</t>
+          <t>13 февраля</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30 января</t>
+          <t>14 февраля</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>-6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31 января</t>
+          <t>15 февраля</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01 февраля</t>
+          <t>16 февраля</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-16</t>
         </is>
       </c>
     </row>
